--- a/src/common/templates/04.Press.xlsx
+++ b/src/common/templates/04.Press.xlsx
@@ -8,13 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\eurocell-mes-be\src\common\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23F96555-6427-45D1-9291-D102AE2E4E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3987927-1B22-4EBA-8AAA-80597026A4C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3675" yWindow="495" windowWidth="19395" windowHeight="14940" xr2:uid="{A241721E-DA35-4962-BB99-E0C17AB4A963}"/>
+    <workbookView xWindow="-20655" yWindow="240" windowWidth="19395" windowHeight="15480" xr2:uid="{A241721E-DA35-4962-BB99-E0C17AB4A963}"/>
   </bookViews>
   <sheets>
     <sheet name="프레스 작업 일지" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="approver">'프레스 작업 일지'!$L$5</definedName>
+    <definedName name="cleanCheck">'프레스 작업 일지'!$G$42</definedName>
+    <definedName name="equipmentCheckResult">'프레스 작업 일지'!$C$40</definedName>
+    <definedName name="equipmentIssue">'프레스 작업 일지'!$K$40</definedName>
+    <definedName name="jigNumber">'프레스 작업 일지'!$G$40</definedName>
+    <definedName name="line">'프레스 작업 일지'!$C$8</definedName>
+    <definedName name="manufactureDate">'프레스 작업 일지'!$C$7</definedName>
+    <definedName name="plant">'프레스 작업 일지'!$G$8</definedName>
+    <definedName name="productionId">'프레스 작업 일지'!$G$7</definedName>
+    <definedName name="remark">'프레스 작업 일지'!$A$44</definedName>
+    <definedName name="reviewer">'프레스 작업 일지'!$K$5</definedName>
+    <definedName name="safety">'프레스 작업 일지'!$K$42</definedName>
+    <definedName name="shift">'프레스 작업 일지'!$K$8</definedName>
+    <definedName name="tempHumi">'프레스 작업 일지'!$C$42</definedName>
+    <definedName name="worker">'프레스 작업 일지'!$K$7</definedName>
+    <definedName name="writer">'프레스 작업 일지'!$J$5</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="48">
   <si>
     <t>프레스 작업 일지</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -199,10 +217,6 @@
   </si>
   <si>
     <t>설비 점검 결과</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>√</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -238,9 +252,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -320,7 +333,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -607,6 +620,132 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -616,17 +755,32 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
@@ -635,10 +789,31 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -647,25 +822,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -689,18 +852,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -710,40 +861,31 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -773,7 +915,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1114,950 +1301,1042 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="10" max="12" width="9" style="52"/>
+    <col min="10" max="12" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="2" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="7"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="11"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="8" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="8" t="s">
+      <c r="F7" s="20"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="8" t="s">
+      <c r="B8" s="20"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="8" t="s">
+      <c r="F8" s="20"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="3" t="s">
+      <c r="J8" s="20"/>
+      <c r="K8" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="3"/>
+      <c r="L8" s="19"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="7"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="11"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9" t="s">
+      <c r="B10" s="20"/>
+      <c r="C10" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9" t="s">
+      <c r="D10" s="21"/>
+      <c r="E10" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9" t="s">
+      <c r="F10" s="21"/>
+      <c r="G10" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9" t="s">
+      <c r="H10" s="21"/>
+      <c r="I10" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9" t="s">
+      <c r="J10" s="21"/>
+      <c r="K10" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="L10" s="9"/>
+      <c r="L10" s="21"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
     </row>
     <row r="13" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="17"/>
     </row>
     <row r="14" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18" t="s">
+      <c r="B14" s="26"/>
+      <c r="C14" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="19" t="s">
+      <c r="D14" s="26"/>
+      <c r="E14" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="19" t="s">
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="22"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="30"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="24"/>
       <c r="C15" s="24"/>
       <c r="D15" s="24"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25" t="s">
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="26" t="s">
+      <c r="G15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="26" t="s">
+      <c r="H15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25" t="s">
+      <c r="I15" s="2"/>
+      <c r="J15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K15" s="26" t="s">
+      <c r="K15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L15" s="27" t="s">
+      <c r="L15" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9" t="s">
+      <c r="B16" s="21"/>
+      <c r="C16" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="25" t="s">
+      <c r="D16" s="21"/>
+      <c r="E16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="25"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="25" t="s">
+      <c r="F16" s="2"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J16" s="25"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="27"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="29"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="31" t="s">
+      <c r="A17" s="33"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="31"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31" t="s">
+      <c r="F17" s="5"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J17" s="31"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="33"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="7"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18" t="s">
+      <c r="B18" s="26"/>
+      <c r="C18" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="19" t="s">
+      <c r="D18" s="26"/>
+      <c r="E18" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="19" t="s">
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="22"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="30"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="23"/>
+      <c r="A19" s="31"/>
       <c r="B19" s="24"/>
       <c r="C19" s="24"/>
       <c r="D19" s="24"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25" t="s">
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="26" t="s">
+      <c r="G19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H19" s="26" t="s">
+      <c r="H19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25" t="s">
+      <c r="I19" s="2"/>
+      <c r="J19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K19" s="26" t="s">
+      <c r="K19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L19" s="27" t="s">
+      <c r="L19" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9" t="s">
+      <c r="B20" s="21"/>
+      <c r="C20" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="25" t="s">
+      <c r="D20" s="21"/>
+      <c r="E20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="25" t="s">
+      <c r="F20" s="2"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J20" s="25"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="27"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="4"/>
     </row>
     <row r="21" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="29"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="31" t="s">
+      <c r="A21" s="33"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="31"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31" t="s">
+      <c r="F21" s="5"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J21" s="31"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="33"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="7"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18" t="s">
+      <c r="B22" s="26"/>
+      <c r="C22" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="19" t="s">
+      <c r="D22" s="26"/>
+      <c r="E22" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="19" t="s">
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="22"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="30"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
+      <c r="A23" s="31"/>
       <c r="B23" s="24"/>
       <c r="C23" s="24"/>
       <c r="D23" s="24"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25" t="s">
+      <c r="E23" s="2"/>
+      <c r="F23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="26" t="s">
+      <c r="G23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="26" t="s">
+      <c r="H23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25" t="s">
+      <c r="I23" s="2"/>
+      <c r="J23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K23" s="26" t="s">
+      <c r="K23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L23" s="27" t="s">
+      <c r="L23" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9" t="s">
+      <c r="B24" s="21"/>
+      <c r="C24" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="25" t="s">
+      <c r="D24" s="21"/>
+      <c r="E24" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="25"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="25" t="s">
+      <c r="F24" s="2"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J24" s="25"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="27"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="4"/>
     </row>
     <row r="25" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="29"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="31" t="s">
+      <c r="A25" s="33"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="31"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31" t="s">
+      <c r="F25" s="5"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J25" s="31"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="33"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="17" t="s">
+      <c r="J25" s="5"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="7"/>
+    </row>
+    <row r="26" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18" t="s">
+      <c r="B26" s="57"/>
+      <c r="C26" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="19" t="s">
+      <c r="D26" s="57"/>
+      <c r="E26" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="19" t="s">
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="22"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="59"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="23"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25" t="s">
+      <c r="A27" s="68"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G27" s="26" t="s">
+      <c r="G27" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H27" s="26" t="s">
+      <c r="H27" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25" t="s">
+      <c r="I27" s="2"/>
+      <c r="J27" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K27" s="26" t="s">
+      <c r="K27" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L27" s="27" t="s">
+      <c r="L27" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9" t="s">
+      <c r="B28" s="64"/>
+      <c r="C28" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="25" t="s">
+      <c r="D28" s="64"/>
+      <c r="E28" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="25"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="25" t="s">
+      <c r="F28" s="2"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J28" s="25"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="27"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="4"/>
     </row>
     <row r="29" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="29"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="31" t="s">
+      <c r="A29" s="62"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="31"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31" t="s">
+      <c r="F29" s="5"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J29" s="31"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="33"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="7"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="26"/>
+      <c r="E30" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="30"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="31"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="21"/>
+      <c r="E32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J32" s="2"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="4"/>
+    </row>
+    <row r="33" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="33"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33" s="5"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J33" s="5"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="7"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="7"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="34" t="s">
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="14"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="35"/>
-      <c r="C31" s="26" t="s">
+      <c r="B35" s="36"/>
+      <c r="C35" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="26" t="s">
+      <c r="D35" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E31" s="36" t="s">
+      <c r="E35" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="F31" s="37"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="36" t="s">
+      <c r="F35" s="41"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="J31" s="37"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="35"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="38"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="39"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="36" t="s">
+      <c r="J35" s="41"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="36"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="37"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="38"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="37"/>
-      <c r="C33" s="26" t="s">
+      <c r="B37" s="41"/>
+      <c r="C37" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="26" t="s">
+      <c r="D37" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E33" s="36" t="s">
+      <c r="E37" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="F33" s="37"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="36" t="s">
+      <c r="F37" s="41"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="J33" s="37"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="35"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="40"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="41"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="39"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
+      <c r="J37" s="41"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="36"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="42"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="38"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="7"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="10" t="s">
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="11"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="42" t="s">
+      <c r="B40" s="23"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D36" s="24"/>
-      <c r="E36" s="10" t="s">
+      <c r="F40" s="23"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="F36" s="10"/>
-      <c r="G36" s="24">
-        <v>1251231</v>
-      </c>
-      <c r="H36" s="24"/>
-      <c r="I36" s="10" t="s">
+      <c r="J40" s="23"/>
+      <c r="K40" s="39"/>
+      <c r="L40" s="24"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="J36" s="10"/>
-      <c r="K36" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="L36" s="24"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="11"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="7"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="10" t="s">
+      <c r="B42" s="23"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="10" t="s">
+      <c r="F42" s="23"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="F38" s="10"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="10" t="s">
+      <c r="J42" s="23"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="J38" s="10"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="24"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="7"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="43"/>
-      <c r="B40" s="44"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="44"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="44"/>
-      <c r="K40" s="44"/>
-      <c r="L40" s="45"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="46"/>
-      <c r="B41" s="47"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="47"/>
-      <c r="H41" s="47"/>
-      <c r="I41" s="47"/>
-      <c r="J41" s="47"/>
-      <c r="K41" s="47"/>
-      <c r="L41" s="48"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="46"/>
-      <c r="B42" s="47"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="47"/>
-      <c r="I42" s="47"/>
-      <c r="J42" s="47"/>
-      <c r="K42" s="47"/>
-      <c r="L42" s="48"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="46"/>
-      <c r="B43" s="47"/>
-      <c r="C43" s="47"/>
-      <c r="D43" s="47"/>
-      <c r="E43" s="47"/>
-      <c r="F43" s="47"/>
-      <c r="G43" s="47"/>
-      <c r="H43" s="47"/>
-      <c r="I43" s="47"/>
-      <c r="J43" s="47"/>
-      <c r="K43" s="47"/>
-      <c r="L43" s="48"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="11"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="46"/>
-      <c r="B44" s="47"/>
-      <c r="C44" s="47"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="47"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="47"/>
-      <c r="H44" s="47"/>
-      <c r="I44" s="47"/>
-      <c r="J44" s="47"/>
-      <c r="K44" s="47"/>
-      <c r="L44" s="48"/>
+      <c r="A44" s="44"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="45"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="45"/>
+      <c r="I44" s="45"/>
+      <c r="J44" s="45"/>
+      <c r="K44" s="45"/>
+      <c r="L44" s="46"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="46"/>
-      <c r="B45" s="47"/>
-      <c r="C45" s="47"/>
-      <c r="D45" s="47"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="47"/>
-      <c r="G45" s="47"/>
-      <c r="H45" s="47"/>
-      <c r="I45" s="47"/>
-      <c r="J45" s="47"/>
-      <c r="K45" s="47"/>
-      <c r="L45" s="48"/>
+      <c r="A45" s="47"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="48"/>
+      <c r="I45" s="48"/>
+      <c r="J45" s="48"/>
+      <c r="K45" s="48"/>
+      <c r="L45" s="49"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="49"/>
-      <c r="B46" s="50"/>
-      <c r="C46" s="50"/>
-      <c r="D46" s="50"/>
-      <c r="E46" s="50"/>
-      <c r="F46" s="50"/>
-      <c r="G46" s="50"/>
-      <c r="H46" s="50"/>
-      <c r="I46" s="50"/>
-      <c r="J46" s="50"/>
-      <c r="K46" s="50"/>
-      <c r="L46" s="51"/>
+      <c r="A46" s="47"/>
+      <c r="B46" s="48"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="48"/>
+      <c r="I46" s="48"/>
+      <c r="J46" s="48"/>
+      <c r="K46" s="48"/>
+      <c r="L46" s="49"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" s="47"/>
+      <c r="B47" s="48"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="48"/>
+      <c r="I47" s="48"/>
+      <c r="J47" s="48"/>
+      <c r="K47" s="48"/>
+      <c r="L47" s="49"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" s="47"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="48"/>
+      <c r="I48" s="48"/>
+      <c r="J48" s="48"/>
+      <c r="K48" s="48"/>
+      <c r="L48" s="49"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" s="47"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="48"/>
+      <c r="H49" s="48"/>
+      <c r="I49" s="48"/>
+      <c r="J49" s="48"/>
+      <c r="K49" s="48"/>
+      <c r="L49" s="49"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" s="50"/>
+      <c r="B50" s="51"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="51"/>
+      <c r="E50" s="51"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="51"/>
+      <c r="H50" s="51"/>
+      <c r="I50" s="51"/>
+      <c r="J50" s="51"/>
+      <c r="K50" s="51"/>
+      <c r="L50" s="52"/>
     </row>
   </sheetData>
-  <mergeCells count="97">
-    <mergeCell ref="A40:L46"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="G31:H32"/>
-    <mergeCell ref="I31:J32"/>
-    <mergeCell ref="K31:L32"/>
-    <mergeCell ref="A33:B34"/>
-    <mergeCell ref="E33:F34"/>
-    <mergeCell ref="G33:H34"/>
-    <mergeCell ref="I33:J34"/>
-    <mergeCell ref="K33:L34"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="A31:B32"/>
-    <mergeCell ref="E31:F32"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
+  <mergeCells count="114">
+    <mergeCell ref="A44:L50"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="I22:L22"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="C25:D25"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I30:L30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="A35:B36"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="G35:H36"/>
+    <mergeCell ref="I35:J36"/>
+    <mergeCell ref="K35:L36"/>
+    <mergeCell ref="A37:B38"/>
+    <mergeCell ref="E37:F38"/>
+    <mergeCell ref="G37:H38"/>
+    <mergeCell ref="I37:J38"/>
+    <mergeCell ref="K37:L38"/>
+    <mergeCell ref="E35:F36"/>
+    <mergeCell ref="A39:L39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="I26:L26"/>
     <mergeCell ref="E18:H18"/>
     <mergeCell ref="I18:L18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:H26"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="E14:H14"/>
     <mergeCell ref="I14:L14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
     <mergeCell ref="K12:L12"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:D11"/>
@@ -2065,18 +2344,16 @@
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="K11:L11"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="A41:L41"/>
+    <mergeCell ref="A43:L43"/>
+    <mergeCell ref="A34:L34"/>
+    <mergeCell ref="A13:L13"/>
+    <mergeCell ref="A9:L9"/>
     <mergeCell ref="A1:I5"/>
     <mergeCell ref="J2:J4"/>
     <mergeCell ref="K2:K4"/>
@@ -2087,9 +2364,18 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="74" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="84" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/common/templates/04.Press.xlsx
+++ b/src/common/templates/04.Press.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\eurocell-mes-be\src\common\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3987927-1B22-4EBA-8AAA-80597026A4C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8105CD8F-C1E8-4DBF-BE31-5180A460760A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20655" yWindow="240" windowWidth="19395" windowHeight="15480" xr2:uid="{A241721E-DA35-4962-BB99-E0C17AB4A963}"/>
+    <workbookView xWindow="-15600" yWindow="675" windowWidth="15495" windowHeight="14820" xr2:uid="{A241721E-DA35-4962-BB99-E0C17AB4A963}"/>
   </bookViews>
   <sheets>
     <sheet name="프레스 작업 일지" sheetId="1" r:id="rId1"/>
@@ -18,18 +18,112 @@
   <definedNames>
     <definedName name="approver">'프레스 작업 일지'!$L$5</definedName>
     <definedName name="cleanCheck">'프레스 작업 일지'!$G$42</definedName>
+    <definedName name="coatingLot1">'프레스 작업 일지'!$A$15</definedName>
+    <definedName name="coatingLot2">'프레스 작업 일지'!$A$19</definedName>
+    <definedName name="coatingLot3">'프레스 작업 일지'!$A$23</definedName>
+    <definedName name="coatingLot4">'프레스 작업 일지'!$A$27</definedName>
+    <definedName name="coatingLot5">'프레스 작업 일지'!$A$31</definedName>
+    <definedName name="coatingQuantity1">'프레스 작업 일지'!$A$17</definedName>
+    <definedName name="coatingQuantity2">'프레스 작업 일지'!$A$21</definedName>
+    <definedName name="coatingQuantity3">'프레스 작업 일지'!$A$25</definedName>
+    <definedName name="coatingQuantity4">'프레스 작업 일지'!$A$29</definedName>
+    <definedName name="coatingQuantity5">'프레스 작업 일지'!$A$33</definedName>
+    <definedName name="coatingRollLot1">'프레스 작업 일지'!$C$11</definedName>
+    <definedName name="coatingRollLot2">'프레스 작업 일지'!$E$11</definedName>
+    <definedName name="coatingRollLot3">'프레스 작업 일지'!$G$11</definedName>
+    <definedName name="coatingRollLot4">'프레스 작업 일지'!$I$11</definedName>
+    <definedName name="coatingRollLot5">'프레스 작업 일지'!$K$11</definedName>
     <definedName name="equipmentCheckResult">'프레스 작업 일지'!$C$40</definedName>
     <definedName name="equipmentIssue">'프레스 작업 일지'!$K$40</definedName>
     <definedName name="jigNumber">'프레스 작업 일지'!$G$40</definedName>
     <definedName name="line">'프레스 작업 일지'!$C$8</definedName>
     <definedName name="manufactureDate">'프레스 작업 일지'!$C$7</definedName>
     <definedName name="plant">'프레스 작업 일지'!$G$8</definedName>
+    <definedName name="pressLot1">'프레스 작업 일지'!$C$15</definedName>
+    <definedName name="pressLot2">'프레스 작업 일지'!$C$19</definedName>
+    <definedName name="pressLot3">'프레스 작업 일지'!$C$23</definedName>
+    <definedName name="pressLot4">'프레스 작업 일지'!$C$27</definedName>
+    <definedName name="pressLot5">'프레스 작업 일지'!$C$31</definedName>
+    <definedName name="pressQuantity1">'프레스 작업 일지'!$C$17</definedName>
+    <definedName name="pressQuantity2">'프레스 작업 일지'!$C$21</definedName>
+    <definedName name="pressQuantity3">'프레스 작업 일지'!$C$25</definedName>
+    <definedName name="pressQuantity4">'프레스 작업 일지'!$C$29</definedName>
+    <definedName name="pressQuantity5">'프레스 작업 일지'!$C$33</definedName>
+    <definedName name="pressSpeed">'프레스 작업 일지'!$G$35</definedName>
+    <definedName name="pressureCondition">'프레스 작업 일지'!$K$35</definedName>
     <definedName name="productionId">'프레스 작업 일지'!$G$7</definedName>
     <definedName name="remark">'프레스 작업 일지'!$A$44</definedName>
     <definedName name="reviewer">'프레스 작업 일지'!$K$5</definedName>
+    <definedName name="rollGapLeft">'프레스 작업 일지'!$C$38</definedName>
+    <definedName name="rollGapRight">'프레스 작업 일지'!$D$38</definedName>
+    <definedName name="rollTemperatureInfeed">'프레스 작업 일지'!$K$37</definedName>
+    <definedName name="rollTemperatureMain">'프레스 작업 일지'!$G$37</definedName>
     <definedName name="safety">'프레스 작업 일지'!$K$42</definedName>
     <definedName name="shift">'프레스 작업 일지'!$K$8</definedName>
+    <definedName name="targetThickness">'프레스 작업 일지'!$G$12</definedName>
     <definedName name="tempHumi">'프레스 작업 일지'!$C$42</definedName>
+    <definedName name="tensionReT">'프레스 작업 일지'!$D$36</definedName>
+    <definedName name="tensionUnT">'프레스 작업 일지'!$C$36</definedName>
+    <definedName name="thicknessFront1C">'프레스 작업 일지'!$K$16</definedName>
+    <definedName name="thicknessFront1D">'프레스 작업 일지'!$L$16</definedName>
+    <definedName name="thicknessFront1M">'프레스 작업 일지'!$J$16</definedName>
+    <definedName name="thicknessFront2C">'프레스 작업 일지'!$K$20</definedName>
+    <definedName name="thicknessFront2D">'프레스 작업 일지'!$L$20</definedName>
+    <definedName name="thicknessFront2M">'프레스 작업 일지'!$J$20</definedName>
+    <definedName name="thicknessFront3C">'프레스 작업 일지'!$K$24</definedName>
+    <definedName name="thicknessFront3D">'프레스 작업 일지'!$L$24</definedName>
+    <definedName name="thicknessFront3M">'프레스 작업 일지'!$J$24</definedName>
+    <definedName name="thicknessFront4C">'프레스 작업 일지'!$K$28</definedName>
+    <definedName name="thicknessFront4D">'프레스 작업 일지'!$L$28</definedName>
+    <definedName name="thicknessFront4M">'프레스 작업 일지'!$J$28</definedName>
+    <definedName name="thicknessFront5C">'프레스 작업 일지'!$K$32</definedName>
+    <definedName name="thicknessFront5D">'프레스 작업 일지'!$L$32</definedName>
+    <definedName name="thicknessFront5M">'프레스 작업 일지'!$J$32</definedName>
+    <definedName name="thicknessRear1C">'프레스 작업 일지'!$K$17</definedName>
+    <definedName name="thicknessRear1D">'프레스 작업 일지'!$L$17</definedName>
+    <definedName name="thicknessRear1M">'프레스 작업 일지'!$J$17</definedName>
+    <definedName name="thicknessRear2C">'프레스 작업 일지'!$K$21</definedName>
+    <definedName name="thicknessRear2D">'프레스 작업 일지'!$L$21</definedName>
+    <definedName name="thicknessRear2M">'프레스 작업 일지'!$J$21</definedName>
+    <definedName name="thicknessRear3C">'프레스 작업 일지'!$K$25</definedName>
+    <definedName name="thicknessRear3D">'프레스 작업 일지'!$L$25</definedName>
+    <definedName name="thicknessRear3M">'프레스 작업 일지'!$J$25</definedName>
+    <definedName name="thicknessRear4C">'프레스 작업 일지'!$K$29</definedName>
+    <definedName name="thicknessRear4D">'프레스 작업 일지'!$L$29</definedName>
+    <definedName name="thicknessRear4M">'프레스 작업 일지'!$J$29</definedName>
+    <definedName name="thicknessRear5C">'프레스 작업 일지'!$K$33</definedName>
+    <definedName name="thicknessRear5D">'프레스 작업 일지'!$L$33</definedName>
+    <definedName name="thicknessRear5M">'프레스 작업 일지'!$J$33</definedName>
+    <definedName name="weightPerAreaFront1C">'프레스 작업 일지'!$G$16</definedName>
+    <definedName name="weightPerAreaFront1D">'프레스 작업 일지'!$H$16</definedName>
+    <definedName name="weightPerAreaFront1M">'프레스 작업 일지'!$F$16</definedName>
+    <definedName name="weightPerAreaFront2C">'프레스 작업 일지'!$G$20</definedName>
+    <definedName name="weightPerAreaFront2D">'프레스 작업 일지'!$H$20</definedName>
+    <definedName name="weightPerAreaFront2M">'프레스 작업 일지'!$F$20</definedName>
+    <definedName name="weightPerAreaFront3C">'프레스 작업 일지'!$G$24</definedName>
+    <definedName name="weightPerAreaFront3D">'프레스 작업 일지'!$H$24</definedName>
+    <definedName name="weightPerAreaFront3M">'프레스 작업 일지'!$F$24</definedName>
+    <definedName name="weightPerAreaFront4C">'프레스 작업 일지'!$G$28</definedName>
+    <definedName name="weightPerAreaFront4D">'프레스 작업 일지'!$H$28</definedName>
+    <definedName name="weightPerAreaFront4M">'프레스 작업 일지'!$F$28</definedName>
+    <definedName name="weightPerAreaFront5C">'프레스 작업 일지'!$G$32</definedName>
+    <definedName name="weightPerAreaFront5D">'프레스 작업 일지'!$H$32</definedName>
+    <definedName name="weightPerAreaFront5M">'프레스 작업 일지'!$F$32</definedName>
+    <definedName name="weightPerAreaRear1C">'프레스 작업 일지'!$G$17</definedName>
+    <definedName name="weightPerAreaRear1D">'프레스 작업 일지'!$H$17</definedName>
+    <definedName name="weightPerAreaRear1M">'프레스 작업 일지'!$F$17</definedName>
+    <definedName name="weightPerAreaRear2C">'프레스 작업 일지'!$G$21</definedName>
+    <definedName name="weightPerAreaRear2D">'프레스 작업 일지'!$H$21</definedName>
+    <definedName name="weightPerAreaRear2M">'프레스 작업 일지'!$F$21</definedName>
+    <definedName name="weightPerAreaRear3C">'프레스 작업 일지'!$G$25</definedName>
+    <definedName name="weightPerAreaRear3D">'프레스 작업 일지'!$H$25</definedName>
+    <definedName name="weightPerAreaRear3M">'프레스 작업 일지'!$F$25</definedName>
+    <definedName name="weightPerAreaRear4C">'프레스 작업 일지'!$G$29</definedName>
+    <definedName name="weightPerAreaRear4D">'프레스 작업 일지'!$H$29</definedName>
+    <definedName name="weightPerAreaRear4M">'프레스 작업 일지'!$F$29</definedName>
+    <definedName name="weightPerAreaRear5C">'프레스 작업 일지'!$G$33</definedName>
+    <definedName name="weightPerAreaRear5D">'프레스 작업 일지'!$H$33</definedName>
+    <definedName name="weightPerAreaRear5M">'프레스 작업 일지'!$F$33</definedName>
     <definedName name="worker">'프레스 작업 일지'!$K$7</definedName>
     <definedName name="writer">'프레스 작업 일지'!$J$5</definedName>
   </definedNames>
@@ -54,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="53">
   <si>
     <t>프레스 작업 일지</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -112,18 +206,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Roll</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>코팅 로트</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>프레스 생산 로트</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>3. 생산 정보</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -246,6 +332,30 @@
   <si>
     <t>7. 비고 / 특이사항</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>생산량(m)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>목표 두께 (㎛)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Roll 1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Roll 2</t>
+  </si>
+  <si>
+    <t>Roll 3</t>
+  </si>
+  <si>
+    <t>Roll 4</t>
+  </si>
+  <si>
+    <t>Roll 5</t>
   </si>
 </sst>
 </file>
@@ -333,7 +443,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -672,17 +782,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -742,6 +841,87 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -755,7 +935,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -801,13 +981,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -822,13 +1002,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -852,6 +1044,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -861,6 +1056,51 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -886,6 +1126,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -914,54 +1157,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1303,8 +1498,8 @@
   </sheetPr>
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A27" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37:L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1471,61 +1666,61 @@
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="21" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="21" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="H10" s="21"/>
       <c r="I10" s="21" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="J10" s="21"/>
       <c r="K10" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="21"/>
+    </row>
+    <row r="11" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="L10" s="21"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+    </row>
+    <row r="12" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="28"/>
     </row>
     <row r="13" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -1540,440 +1735,440 @@
       <c r="L13" s="17"/>
     </row>
     <row r="14" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="30"/>
+      <c r="E14" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26" t="s">
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="30"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="34"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="31"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K15" s="3" t="s">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="37" t="s">
         <v>23</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="32" t="s">
-        <v>25</v>
       </c>
       <c r="B16" s="21"/>
       <c r="C16" s="21" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="3"/>
       <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="33"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
       <c r="E17" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="6"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J17" s="5"/>
       <c r="K17" s="6"/>
       <c r="L17" s="7"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="30"/>
+      <c r="E18" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26" t="s">
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="30"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="34"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="31"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K19" s="3" t="s">
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="37" t="s">
         <v>23</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="32" t="s">
-        <v>25</v>
       </c>
       <c r="B20" s="21"/>
       <c r="C20" s="21" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="3"/>
       <c r="L20" s="4"/>
     </row>
     <row r="21" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="33"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
       <c r="E21" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="6"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J21" s="5"/>
       <c r="K21" s="6"/>
       <c r="L21" s="7"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="30"/>
+      <c r="E22" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26" t="s">
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="30"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="34"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="31"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K23" s="3" t="s">
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="37" t="s">
         <v>23</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="32" t="s">
-        <v>25</v>
       </c>
       <c r="B24" s="21"/>
       <c r="C24" s="21" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D24" s="21"/>
       <c r="E24" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="3"/>
       <c r="L24" s="4"/>
     </row>
     <row r="25" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="33"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
       <c r="E25" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="6"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J25" s="5"/>
       <c r="K25" s="6"/>
       <c r="L25" s="7"/>
     </row>
     <row r="26" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="58" t="s">
+      <c r="A26" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="44"/>
+      <c r="C26" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="44"/>
+      <c r="E26" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="57"/>
-      <c r="C26" s="56" t="s">
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="57"/>
-      <c r="E26" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="J26" s="54"/>
-      <c r="K26" s="54"/>
-      <c r="L26" s="59"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="42"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="68"/>
-      <c r="B27" s="67"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="67"/>
+      <c r="A27" s="47"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="48"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K27" s="3" t="s">
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="L27" s="4" t="s">
+      <c r="B28" s="51"/>
+      <c r="C28" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="21"/>
+      <c r="E28" s="2" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="65" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="64"/>
-      <c r="C28" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="64"/>
-      <c r="E28" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="3"/>
       <c r="L28" s="4"/>
     </row>
     <row r="29" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="62"/>
-      <c r="B29" s="61"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="61"/>
+      <c r="A29" s="52"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="53"/>
       <c r="E29" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="6"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J29" s="5"/>
       <c r="K29" s="6"/>
       <c r="L29" s="7"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="30"/>
+      <c r="E30" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26" t="s">
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="26"/>
-      <c r="E30" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="30"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="34"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="31"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L31" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K31" s="3" t="s">
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="37" t="s">
         <v>23</v>
-      </c>
-      <c r="L31" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="32" t="s">
-        <v>25</v>
       </c>
       <c r="B32" s="21"/>
       <c r="C32" s="21" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D32" s="21"/>
       <c r="E32" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J32" s="2"/>
       <c r="K32" s="3"/>
       <c r="L32" s="4"/>
     </row>
     <row r="33" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="33"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
+      <c r="A33" s="38"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
       <c r="E33" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="6"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J33" s="5"/>
       <c r="K33" s="6"/>
@@ -1981,7 +2176,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
@@ -1996,84 +2191,84 @@
       <c r="L34" s="14"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="35" t="s">
+      <c r="A35" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="56"/>
+      <c r="C35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="36"/>
-      <c r="C35" s="3" t="s">
+      <c r="E35" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="F35" s="61"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="E35" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="F35" s="41"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="J35" s="41"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="36"/>
+      <c r="J35" s="61"/>
+      <c r="K35" s="55"/>
+      <c r="L35" s="56"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="37"/>
-      <c r="B36" s="38"/>
+      <c r="A36" s="57"/>
+      <c r="B36" s="58"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="38"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="62"/>
+      <c r="J36" s="63"/>
+      <c r="K36" s="57"/>
+      <c r="L36" s="58"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="40" t="s">
+      <c r="A37" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="61"/>
+      <c r="C37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="41"/>
-      <c r="C37" s="3" t="s">
+      <c r="E37" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="F37" s="61"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="56"/>
+      <c r="I37" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="E37" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="F37" s="41"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="J37" s="41"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="36"/>
+      <c r="J37" s="61"/>
+      <c r="K37" s="55"/>
+      <c r="L37" s="56"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="42"/>
-      <c r="B38" s="43"/>
+      <c r="A38" s="62"/>
+      <c r="B38" s="63"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="42"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="37"/>
-      <c r="L38" s="38"/>
+      <c r="E38" s="62"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="58"/>
+      <c r="I38" s="62"/>
+      <c r="J38" s="63"/>
+      <c r="K38" s="57"/>
+      <c r="L38" s="58"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -2088,28 +2283,28 @@
       <c r="L39" s="11"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="23" t="s">
+      <c r="A40" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="64"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="F40" s="64"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="23"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="F40" s="23"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="J40" s="23"/>
-      <c r="K40" s="39"/>
-      <c r="L40" s="24"/>
+      <c r="J40" s="64"/>
+      <c r="K40" s="59"/>
+      <c r="L40" s="36"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -2124,28 +2319,28 @@
       <c r="L41" s="11"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="23" t="s">
+      <c r="A42" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="64"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" s="64"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="B42" s="23"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="F42" s="23"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="J42" s="23"/>
-      <c r="K42" s="24"/>
-      <c r="L42" s="24"/>
+      <c r="J42" s="64"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="36"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -2160,105 +2355,105 @@
       <c r="L43" s="11"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="44"/>
-      <c r="B44" s="45"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="45"/>
-      <c r="E44" s="45"/>
-      <c r="F44" s="45"/>
-      <c r="G44" s="45"/>
-      <c r="H44" s="45"/>
-      <c r="I44" s="45"/>
-      <c r="J44" s="45"/>
-      <c r="K44" s="45"/>
-      <c r="L44" s="46"/>
+      <c r="A44" s="65"/>
+      <c r="B44" s="66"/>
+      <c r="C44" s="66"/>
+      <c r="D44" s="66"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="66"/>
+      <c r="H44" s="66"/>
+      <c r="I44" s="66"/>
+      <c r="J44" s="66"/>
+      <c r="K44" s="66"/>
+      <c r="L44" s="67"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="47"/>
-      <c r="B45" s="48"/>
-      <c r="C45" s="48"/>
-      <c r="D45" s="48"/>
-      <c r="E45" s="48"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="48"/>
-      <c r="H45" s="48"/>
-      <c r="I45" s="48"/>
-      <c r="J45" s="48"/>
-      <c r="K45" s="48"/>
-      <c r="L45" s="49"/>
+      <c r="A45" s="68"/>
+      <c r="B45" s="69"/>
+      <c r="C45" s="69"/>
+      <c r="D45" s="69"/>
+      <c r="E45" s="69"/>
+      <c r="F45" s="69"/>
+      <c r="G45" s="69"/>
+      <c r="H45" s="69"/>
+      <c r="I45" s="69"/>
+      <c r="J45" s="69"/>
+      <c r="K45" s="69"/>
+      <c r="L45" s="70"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="47"/>
-      <c r="B46" s="48"/>
-      <c r="C46" s="48"/>
-      <c r="D46" s="48"/>
-      <c r="E46" s="48"/>
-      <c r="F46" s="48"/>
-      <c r="G46" s="48"/>
-      <c r="H46" s="48"/>
-      <c r="I46" s="48"/>
-      <c r="J46" s="48"/>
-      <c r="K46" s="48"/>
-      <c r="L46" s="49"/>
+      <c r="A46" s="68"/>
+      <c r="B46" s="69"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="69"/>
+      <c r="F46" s="69"/>
+      <c r="G46" s="69"/>
+      <c r="H46" s="69"/>
+      <c r="I46" s="69"/>
+      <c r="J46" s="69"/>
+      <c r="K46" s="69"/>
+      <c r="L46" s="70"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="47"/>
-      <c r="B47" s="48"/>
-      <c r="C47" s="48"/>
-      <c r="D47" s="48"/>
-      <c r="E47" s="48"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="48"/>
-      <c r="H47" s="48"/>
-      <c r="I47" s="48"/>
-      <c r="J47" s="48"/>
-      <c r="K47" s="48"/>
-      <c r="L47" s="49"/>
+      <c r="A47" s="68"/>
+      <c r="B47" s="69"/>
+      <c r="C47" s="69"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="69"/>
+      <c r="F47" s="69"/>
+      <c r="G47" s="69"/>
+      <c r="H47" s="69"/>
+      <c r="I47" s="69"/>
+      <c r="J47" s="69"/>
+      <c r="K47" s="69"/>
+      <c r="L47" s="70"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" s="47"/>
-      <c r="B48" s="48"/>
-      <c r="C48" s="48"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="48"/>
-      <c r="I48" s="48"/>
-      <c r="J48" s="48"/>
-      <c r="K48" s="48"/>
-      <c r="L48" s="49"/>
+      <c r="A48" s="68"/>
+      <c r="B48" s="69"/>
+      <c r="C48" s="69"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="69"/>
+      <c r="F48" s="69"/>
+      <c r="G48" s="69"/>
+      <c r="H48" s="69"/>
+      <c r="I48" s="69"/>
+      <c r="J48" s="69"/>
+      <c r="K48" s="69"/>
+      <c r="L48" s="70"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" s="47"/>
-      <c r="B49" s="48"/>
-      <c r="C49" s="48"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="48"/>
-      <c r="H49" s="48"/>
-      <c r="I49" s="48"/>
-      <c r="J49" s="48"/>
-      <c r="K49" s="48"/>
-      <c r="L49" s="49"/>
+      <c r="A49" s="68"/>
+      <c r="B49" s="69"/>
+      <c r="C49" s="69"/>
+      <c r="D49" s="69"/>
+      <c r="E49" s="69"/>
+      <c r="F49" s="69"/>
+      <c r="G49" s="69"/>
+      <c r="H49" s="69"/>
+      <c r="I49" s="69"/>
+      <c r="J49" s="69"/>
+      <c r="K49" s="69"/>
+      <c r="L49" s="70"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A50" s="50"/>
-      <c r="B50" s="51"/>
-      <c r="C50" s="51"/>
-      <c r="D50" s="51"/>
-      <c r="E50" s="51"/>
-      <c r="F50" s="51"/>
-      <c r="G50" s="51"/>
-      <c r="H50" s="51"/>
-      <c r="I50" s="51"/>
-      <c r="J50" s="51"/>
-      <c r="K50" s="51"/>
-      <c r="L50" s="52"/>
+      <c r="A50" s="71"/>
+      <c r="B50" s="72"/>
+      <c r="C50" s="72"/>
+      <c r="D50" s="72"/>
+      <c r="E50" s="72"/>
+      <c r="F50" s="72"/>
+      <c r="G50" s="72"/>
+      <c r="H50" s="72"/>
+      <c r="I50" s="72"/>
+      <c r="J50" s="72"/>
+      <c r="K50" s="72"/>
+      <c r="L50" s="73"/>
     </row>
   </sheetData>
-  <mergeCells count="114">
+  <mergeCells count="110">
     <mergeCell ref="A44:L50"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="C42:D42"/>
@@ -2309,6 +2504,10 @@
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:H30"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="I26:L26"/>
@@ -2323,32 +2522,24 @@
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="E26:H26"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="G12:L12"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="E14:H14"/>
     <mergeCell ref="I14:L14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K12:L12"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
     <mergeCell ref="A41:L41"/>
     <mergeCell ref="A43:L43"/>
     <mergeCell ref="A34:L34"/>

--- a/src/common/templates/04.Press.xlsx
+++ b/src/common/templates/04.Press.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\eurocell-mes-be\src\common\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8105CD8F-C1E8-4DBF-BE31-5180A460760A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E8C90D-A02B-4001-B40B-853EE28CA753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15600" yWindow="675" windowWidth="15495" windowHeight="14820" xr2:uid="{A241721E-DA35-4962-BB99-E0C17AB4A963}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="14310" windowHeight="14940" xr2:uid="{A241721E-DA35-4962-BB99-E0C17AB4A963}"/>
   </bookViews>
   <sheets>
     <sheet name="프레스 작업 일지" sheetId="1" r:id="rId1"/>
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="57">
   <si>
     <t>프레스 작업 일지</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -356,6 +356,22 @@
   </si>
   <si>
     <t>Roll 5</t>
+  </si>
+  <si>
+    <t>25°C / 50%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>양호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상없음</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -963,6 +979,99 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -972,6 +1081,72 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -998,165 +1173,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1498,8 +1514,8 @@
   </sheetPr>
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A27" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37:L38"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1509,17 +1525,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
       <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1531,236 +1547,236 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
+      <c r="A4" s="71"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
+      <c r="A5" s="71"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="11"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="42"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="20" t="s">
+      <c r="B7" s="73"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="20" t="s">
+      <c r="F7" s="73"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="20"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20" t="s">
+      <c r="B8" s="73"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="20" t="s">
+      <c r="F8" s="73"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="20"/>
-      <c r="K8" s="19" t="s">
+      <c r="J8" s="73"/>
+      <c r="K8" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="19"/>
+      <c r="L8" s="72"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="11"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="42"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="21" t="s">
+      <c r="B10" s="73"/>
+      <c r="C10" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21" t="s">
+      <c r="D10" s="28"/>
+      <c r="E10" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21" t="s">
+      <c r="F10" s="28"/>
+      <c r="G10" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21" t="s">
+      <c r="H10" s="28"/>
+      <c r="I10" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21" t="s">
+      <c r="J10" s="28"/>
+      <c r="K10" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="L10" s="21"/>
+      <c r="L10" s="28"/>
     </row>
     <row r="11" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
     </row>
     <row r="12" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="28"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="63"/>
     </row>
     <row r="13" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="17"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="70"/>
     </row>
     <row r="14" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30" t="s">
+      <c r="B14" s="21"/>
+      <c r="C14" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="31" t="s">
+      <c r="D14" s="21"/>
+      <c r="E14" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="31" t="s">
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="34"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="25"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="35"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
         <v>20</v>
@@ -1783,14 +1799,14 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21" t="s">
+      <c r="B16" s="28"/>
+      <c r="C16" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="21"/>
+      <c r="D16" s="28"/>
       <c r="E16" s="2" t="s">
         <v>24</v>
       </c>
@@ -1805,10 +1821,10 @@
       <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="38"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
       <c r="E17" s="5" t="s">
         <v>25</v>
       </c>
@@ -1823,32 +1839,32 @@
       <c r="L17" s="7"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30" t="s">
+      <c r="B18" s="21"/>
+      <c r="C18" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="31" t="s">
+      <c r="D18" s="21"/>
+      <c r="E18" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="31" t="s">
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="34"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="25"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="35"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
         <v>20</v>
@@ -1871,14 +1887,14 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21" t="s">
+      <c r="B20" s="28"/>
+      <c r="C20" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="21"/>
+      <c r="D20" s="28"/>
       <c r="E20" s="2" t="s">
         <v>24</v>
       </c>
@@ -1893,10 +1909,10 @@
       <c r="L20" s="4"/>
     </row>
     <row r="21" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="38"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
       <c r="E21" s="5" t="s">
         <v>25</v>
       </c>
@@ -1911,32 +1927,32 @@
       <c r="L21" s="7"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30" t="s">
+      <c r="B22" s="21"/>
+      <c r="C22" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="30"/>
-      <c r="E22" s="31" t="s">
+      <c r="D22" s="21"/>
+      <c r="E22" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="31" t="s">
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="34"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="25"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="35"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
         <v>20</v>
@@ -1959,14 +1975,14 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21" t="s">
+      <c r="B24" s="28"/>
+      <c r="C24" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="21"/>
+      <c r="D24" s="28"/>
       <c r="E24" s="2" t="s">
         <v>24</v>
       </c>
@@ -1981,10 +1997,10 @@
       <c r="L24" s="4"/>
     </row>
     <row r="25" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="38"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
       <c r="E25" s="5" t="s">
         <v>25</v>
       </c>
@@ -1999,32 +2015,32 @@
       <c r="L25" s="7"/>
     </row>
     <row r="26" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="43" t="s">
+      <c r="A26" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="45" t="s">
+      <c r="B26" s="55"/>
+      <c r="C26" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="44"/>
-      <c r="E26" s="40" t="s">
+      <c r="D26" s="55"/>
+      <c r="E26" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="40" t="s">
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="42"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="53"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="47"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="48"/>
+      <c r="A27" s="43"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="44"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
         <v>20</v>
@@ -2047,14 +2063,14 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="50" t="s">
+      <c r="A28" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="51"/>
-      <c r="C28" s="21" t="s">
+      <c r="B28" s="47"/>
+      <c r="C28" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D28" s="21"/>
+      <c r="D28" s="28"/>
       <c r="E28" s="2" t="s">
         <v>24</v>
       </c>
@@ -2069,10 +2085,10 @@
       <c r="L28" s="4"/>
     </row>
     <row r="29" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="52"/>
-      <c r="B29" s="53"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="53"/>
+      <c r="A29" s="48"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="49"/>
       <c r="E29" s="5" t="s">
         <v>25</v>
       </c>
@@ -2087,32 +2103,32 @@
       <c r="L29" s="7"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="29" t="s">
+      <c r="A30" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30" t="s">
+      <c r="B30" s="21"/>
+      <c r="C30" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="30"/>
-      <c r="E30" s="31" t="s">
+      <c r="D30" s="21"/>
+      <c r="E30" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="31" t="s">
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="J30" s="32"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="34"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="25"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="35"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2" t="s">
         <v>20</v>
@@ -2135,14 +2151,14 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="37" t="s">
+      <c r="A32" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21" t="s">
+      <c r="B32" s="28"/>
+      <c r="C32" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D32" s="21"/>
+      <c r="D32" s="28"/>
       <c r="E32" s="2" t="s">
         <v>24</v>
       </c>
@@ -2157,10 +2173,10 @@
       <c r="L32" s="4"/>
     </row>
     <row r="33" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="38"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
+      <c r="A33" s="29"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
       <c r="E33" s="5" t="s">
         <v>25</v>
       </c>
@@ -2175,285 +2191,381 @@
       <c r="L33" s="7"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="14"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="66"/>
+      <c r="I34" s="66"/>
+      <c r="J34" s="66"/>
+      <c r="K34" s="66"/>
+      <c r="L34" s="67"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="55" t="s">
+      <c r="A35" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="56"/>
+      <c r="B35" s="32"/>
       <c r="C35" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E35" s="60" t="s">
+      <c r="E35" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="F35" s="61"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="60" t="s">
+      <c r="F35" s="37"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="J35" s="61"/>
-      <c r="K35" s="55"/>
-      <c r="L35" s="56"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="32"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="57"/>
-      <c r="B36" s="58"/>
+      <c r="A36" s="33"/>
+      <c r="B36" s="34"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="63"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="62"/>
-      <c r="J36" s="63"/>
-      <c r="K36" s="57"/>
-      <c r="L36" s="58"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="34"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="60" t="s">
+      <c r="A37" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="61"/>
+      <c r="B37" s="37"/>
       <c r="C37" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E37" s="60" t="s">
+      <c r="E37" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="F37" s="61"/>
-      <c r="G37" s="55"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="60" t="s">
+      <c r="F37" s="37"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="J37" s="61"/>
-      <c r="K37" s="55"/>
-      <c r="L37" s="56"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="32"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="62"/>
-      <c r="B38" s="63"/>
+      <c r="A38" s="38"/>
+      <c r="B38" s="39"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="63"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="58"/>
-      <c r="I38" s="62"/>
-      <c r="J38" s="63"/>
-      <c r="K38" s="57"/>
-      <c r="L38" s="58"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="34"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="11"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="42"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="64" t="s">
+      <c r="A40" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="64"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="64" t="s">
+      <c r="B40" s="18"/>
+      <c r="C40" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" s="19"/>
+      <c r="E40" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F40" s="64"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="64" t="s">
+      <c r="F40" s="18"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="J40" s="64"/>
-      <c r="K40" s="59"/>
-      <c r="L40" s="36"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="L40" s="19"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="11"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="42"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="64" t="s">
+      <c r="A42" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="64"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="64" t="s">
+      <c r="B42" s="18"/>
+      <c r="C42" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42" s="19"/>
+      <c r="E42" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F42" s="64"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="64" t="s">
+      <c r="F42" s="18"/>
+      <c r="G42" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="H42" s="19"/>
+      <c r="I42" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="J42" s="64"/>
-      <c r="K42" s="36"/>
-      <c r="L42" s="36"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="L42" s="19"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="11"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="41"/>
+      <c r="K43" s="41"/>
+      <c r="L43" s="42"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="65"/>
-      <c r="B44" s="66"/>
-      <c r="C44" s="66"/>
-      <c r="D44" s="66"/>
-      <c r="E44" s="66"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="66"/>
-      <c r="H44" s="66"/>
-      <c r="I44" s="66"/>
-      <c r="J44" s="66"/>
-      <c r="K44" s="66"/>
-      <c r="L44" s="67"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="11"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="68"/>
-      <c r="B45" s="69"/>
-      <c r="C45" s="69"/>
-      <c r="D45" s="69"/>
-      <c r="E45" s="69"/>
-      <c r="F45" s="69"/>
-      <c r="G45" s="69"/>
-      <c r="H45" s="69"/>
-      <c r="I45" s="69"/>
-      <c r="J45" s="69"/>
-      <c r="K45" s="69"/>
-      <c r="L45" s="70"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="14"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="68"/>
-      <c r="B46" s="69"/>
-      <c r="C46" s="69"/>
-      <c r="D46" s="69"/>
-      <c r="E46" s="69"/>
-      <c r="F46" s="69"/>
-      <c r="G46" s="69"/>
-      <c r="H46" s="69"/>
-      <c r="I46" s="69"/>
-      <c r="J46" s="69"/>
-      <c r="K46" s="69"/>
-      <c r="L46" s="70"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="14"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="68"/>
-      <c r="B47" s="69"/>
-      <c r="C47" s="69"/>
-      <c r="D47" s="69"/>
-      <c r="E47" s="69"/>
-      <c r="F47" s="69"/>
-      <c r="G47" s="69"/>
-      <c r="H47" s="69"/>
-      <c r="I47" s="69"/>
-      <c r="J47" s="69"/>
-      <c r="K47" s="69"/>
-      <c r="L47" s="70"/>
+      <c r="A47" s="12"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="14"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" s="68"/>
-      <c r="B48" s="69"/>
-      <c r="C48" s="69"/>
-      <c r="D48" s="69"/>
-      <c r="E48" s="69"/>
-      <c r="F48" s="69"/>
-      <c r="G48" s="69"/>
-      <c r="H48" s="69"/>
-      <c r="I48" s="69"/>
-      <c r="J48" s="69"/>
-      <c r="K48" s="69"/>
-      <c r="L48" s="70"/>
+      <c r="A48" s="12"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="14"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" s="68"/>
-      <c r="B49" s="69"/>
-      <c r="C49" s="69"/>
-      <c r="D49" s="69"/>
-      <c r="E49" s="69"/>
-      <c r="F49" s="69"/>
-      <c r="G49" s="69"/>
-      <c r="H49" s="69"/>
-      <c r="I49" s="69"/>
-      <c r="J49" s="69"/>
-      <c r="K49" s="69"/>
-      <c r="L49" s="70"/>
+      <c r="A49" s="12"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="14"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A50" s="71"/>
-      <c r="B50" s="72"/>
-      <c r="C50" s="72"/>
-      <c r="D50" s="72"/>
-      <c r="E50" s="72"/>
-      <c r="F50" s="72"/>
-      <c r="G50" s="72"/>
-      <c r="H50" s="72"/>
-      <c r="I50" s="72"/>
-      <c r="J50" s="72"/>
-      <c r="K50" s="72"/>
-      <c r="L50" s="73"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="16"/>
+      <c r="L50" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="110">
+    <mergeCell ref="A41:L41"/>
+    <mergeCell ref="A43:L43"/>
+    <mergeCell ref="A34:L34"/>
+    <mergeCell ref="A13:L13"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A1:I5"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="G12:L12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="A35:B36"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="G35:H36"/>
+    <mergeCell ref="I35:J36"/>
+    <mergeCell ref="K35:L36"/>
+    <mergeCell ref="A37:B38"/>
+    <mergeCell ref="E37:F38"/>
+    <mergeCell ref="G37:H38"/>
+    <mergeCell ref="I37:J38"/>
+    <mergeCell ref="K37:L38"/>
+    <mergeCell ref="E35:F36"/>
+    <mergeCell ref="A39:L39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
     <mergeCell ref="A44:L50"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="C42:D42"/>
@@ -2478,92 +2590,6 @@
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="C33:D33"/>
-    <mergeCell ref="A35:B36"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="G35:H36"/>
-    <mergeCell ref="I35:J36"/>
-    <mergeCell ref="K35:L36"/>
-    <mergeCell ref="A37:B38"/>
-    <mergeCell ref="E37:F38"/>
-    <mergeCell ref="G37:H38"/>
-    <mergeCell ref="I37:J38"/>
-    <mergeCell ref="K37:L38"/>
-    <mergeCell ref="E35:F36"/>
-    <mergeCell ref="A39:L39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="G12:L12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="A41:L41"/>
-    <mergeCell ref="A43:L43"/>
-    <mergeCell ref="A34:L34"/>
-    <mergeCell ref="A13:L13"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="A1:I5"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
